--- a/motif_fold/sample_data/sequences_library.xlsx
+++ b/motif_fold/sample_data/sequences_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/MotifFold/motif_fold/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393878CE-6872-E549-B707-E2938F3A73A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A24A5-8399-E64C-AC58-DA9FA02AC9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="5380" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39260" yWindow="7860" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="this sheet is a winner" sheetId="3" r:id="rId1"/>
@@ -4326,7 +4326,7 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="C110" sqref="C110:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4425,7 +4425,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>114.04359237100959</v>
@@ -4508,7 +4508,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>114.04359237100959</v>
@@ -4591,7 +4591,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>114.04359237100959</v>
@@ -4674,7 +4674,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>114.04359237100959</v>
@@ -4757,7 +4757,7 @@
         <v>147</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>114.04359237100959</v>
@@ -4840,7 +4840,7 @@
         <v>147</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>114.04359237100959</v>
@@ -4923,7 +4923,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>124.92135367542699</v>
@@ -5006,7 +5006,7 @@
         <v>148</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>124.92135367542699</v>
@@ -5089,7 +5089,7 @@
         <v>148</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>124.92135367542699</v>
@@ -5172,7 +5172,7 @@
         <v>148</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>124.92135367542699</v>
@@ -5255,7 +5255,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>124.92135367542699</v>
@@ -5338,7 +5338,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>124.92135367542699</v>
@@ -5421,7 +5421,7 @@
         <v>148</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>124.92135367542699</v>
@@ -5504,7 +5504,7 @@
         <v>148</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>124.92135367542699</v>
@@ -5587,7 +5587,7 @@
         <v>148</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>124.92135367542699</v>
@@ -5670,7 +5670,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>124.92135367542699</v>
@@ -5753,7 +5753,7 @@
         <v>149</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>139.44951585404038</v>
@@ -5836,7 +5836,7 @@
         <v>149</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>139.44951585404038</v>
@@ -5919,7 +5919,7 @@
         <v>149</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>139.44951585404038</v>
@@ -6002,7 +6002,7 @@
         <v>149</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>139.44951585404038</v>
@@ -6085,7 +6085,7 @@
         <v>149</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>139.44951585404038</v>
@@ -6168,7 +6168,7 @@
         <v>149</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>139.44951585404038</v>
@@ -6251,7 +6251,7 @@
         <v>149</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>139.44951585404038</v>
@@ -6334,7 +6334,7 @@
         <v>149</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
         <v>139.44951585404038</v>
@@ -6417,7 +6417,7 @@
         <v>149</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <v>139.44951585404038</v>
@@ -6500,7 +6500,7 @@
         <v>149</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1">
         <v>139.44951585404038</v>
@@ -6583,7 +6583,7 @@
         <v>149</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <v>139.44951585404038</v>
@@ -6666,7 +6666,7 @@
         <v>150</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>157.77967963499148</v>
@@ -6749,7 +6749,7 @@
         <v>150</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>157.77967963499148</v>
@@ -6832,7 +6832,7 @@
         <v>150</v>
       </c>
       <c r="C31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>157.77967963499148</v>
@@ -6915,7 +6915,7 @@
         <v>150</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>157.77967963499148</v>
@@ -6998,7 +6998,7 @@
         <v>150</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>157.77967963499148</v>
@@ -7081,7 +7081,7 @@
         <v>150</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>157.77967963499148</v>
@@ -7164,7 +7164,7 @@
         <v>150</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>157.77967963499148</v>
@@ -7247,7 +7247,7 @@
         <v>150</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>157.77967963499148</v>
@@ -7330,7 +7330,7 @@
         <v>150</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>157.77967963499148</v>
@@ -7413,7 +7413,7 @@
         <v>150</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>157.77967963499148</v>
@@ -7496,7 +7496,7 @@
         <v>151</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>157.779679634991</v>
@@ -7579,7 +7579,7 @@
         <v>151</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>157.779679634991</v>
@@ -7662,7 +7662,7 @@
         <v>151</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>157.779679634991</v>
@@ -7745,7 +7745,7 @@
         <v>151</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>157.779679634991</v>
@@ -7828,7 +7828,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>157.779679634991</v>
@@ -7911,7 +7911,7 @@
         <v>151</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>157.779679634991</v>
@@ -7994,7 +7994,7 @@
         <v>151</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>157.779679634991</v>
@@ -8077,7 +8077,7 @@
         <v>153</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
         <v>163.36040094610888</v>
@@ -8160,7 +8160,7 @@
         <v>153</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
         <v>163.36040094610888</v>
@@ -8243,7 +8243,7 @@
         <v>153</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
         <v>163.36040094610888</v>
@@ -8326,7 +8326,7 @@
         <v>153</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
         <v>163.36040094610888</v>
@@ -8409,7 +8409,7 @@
         <v>153</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
         <v>163.36040094610888</v>
@@ -8492,7 +8492,7 @@
         <v>153</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1">
         <v>163.36040094610888</v>
@@ -8575,7 +8575,7 @@
         <v>153</v>
       </c>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
         <v>163.36040094610888</v>
@@ -8658,7 +8658,7 @@
         <v>153</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
         <v>163.36040094610888</v>
@@ -8741,7 +8741,7 @@
         <v>153</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
         <v>163.36040094610888</v>
@@ -8824,7 +8824,7 @@
         <v>153</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
         <v>163.36040094610888</v>
@@ -8907,7 +8907,7 @@
         <v>153</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1">
         <v>163.36040094610888</v>
@@ -8990,7 +8990,7 @@
         <v>153</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
         <v>163.36040094610888</v>
@@ -9073,7 +9073,7 @@
         <v>153</v>
       </c>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
         <v>163.36040094610888</v>
@@ -9156,7 +9156,7 @@
         <v>153</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
         <v>163.36040094610888</v>
@@ -9239,7 +9239,7 @@
         <v>153</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
         <v>163.36040094610888</v>
@@ -9322,7 +9322,7 @@
         <v>153</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
         <v>163.36040094610888</v>
@@ -9405,7 +9405,7 @@
         <v>152</v>
       </c>
       <c r="C62" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>184.3906651069108</v>
@@ -9488,7 +9488,7 @@
         <v>152</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>184.3906651069108</v>
@@ -9571,7 +9571,7 @@
         <v>152</v>
       </c>
       <c r="C64" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>184.3906651069108</v>
@@ -9654,7 +9654,7 @@
         <v>152</v>
       </c>
       <c r="C65" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>184.3906651069108</v>
@@ -9737,7 +9737,7 @@
         <v>152</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>184.3906651069108</v>
@@ -9820,7 +9820,7 @@
         <v>152</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>184.3906651069108</v>
@@ -9903,7 +9903,7 @@
         <v>152</v>
       </c>
       <c r="C68" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>184.3906651069108</v>
@@ -9986,7 +9986,7 @@
         <v>152</v>
       </c>
       <c r="C69" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>184.3906651069108</v>
@@ -10069,7 +10069,7 @@
         <v>152</v>
       </c>
       <c r="C70" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>184.3906651069108</v>
@@ -10152,7 +10152,7 @@
         <v>152</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>184.3906651069108</v>
@@ -10235,7 +10235,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>184.3906651069108</v>
@@ -10318,7 +10318,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>184.3906651069108</v>
@@ -10401,7 +10401,7 @@
         <v>152</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>184.3906651069108</v>
@@ -10484,7 +10484,7 @@
         <v>152</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
         <v>184.3906651069108</v>
@@ -10567,7 +10567,7 @@
         <v>152</v>
       </c>
       <c r="C76" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>184.3906651069108</v>
@@ -10650,7 +10650,7 @@
         <v>152</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>184.3906651069108</v>
@@ -10733,7 +10733,7 @@
         <v>152</v>
       </c>
       <c r="C78" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>184.3906651069108</v>
@@ -10816,7 +10816,7 @@
         <v>152</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>184.3906651069108</v>
@@ -10899,7 +10899,7 @@
         <v>152</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
         <v>184.3906651069108</v>
@@ -10982,7 +10982,7 @@
         <v>152</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
         <v>184.3906651069108</v>
@@ -11065,7 +11065,7 @@
         <v>152</v>
       </c>
       <c r="C82" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
         <v>184.3906651069108</v>
@@ -11148,7 +11148,7 @@
         <v>152</v>
       </c>
       <c r="C83" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" s="1">
         <v>184.3906651069108</v>
@@ -11231,7 +11231,7 @@
         <v>152</v>
       </c>
       <c r="C84" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1">
         <v>184.3906651069108</v>
@@ -11314,7 +11314,7 @@
         <v>152</v>
       </c>
       <c r="C85" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
         <v>184.3906651069108</v>
@@ -11397,7 +11397,7 @@
         <v>152</v>
       </c>
       <c r="C86" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1">
         <v>184.3906651069108</v>
@@ -11480,7 +11480,7 @@
         <v>152</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
         <v>184.3906651069108</v>
@@ -11563,7 +11563,7 @@
         <v>152</v>
       </c>
       <c r="C88" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1">
         <v>184.390665106911</v>
@@ -11646,7 +11646,7 @@
         <v>152</v>
       </c>
       <c r="C89" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
         <v>184.390665106911</v>
@@ -11729,7 +11729,7 @@
         <v>152</v>
       </c>
       <c r="C90" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1">
         <v>184.390665106911</v>
@@ -11812,7 +11812,7 @@
         <v>152</v>
       </c>
       <c r="C91" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
         <v>184.390665106911</v>
@@ -11895,7 +11895,7 @@
         <v>152</v>
       </c>
       <c r="C92" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1">
         <v>184.390665106911</v>
@@ -11978,7 +11978,7 @@
         <v>154</v>
       </c>
       <c r="C93" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1">
         <v>196.97234435115618</v>
@@ -12061,7 +12061,7 @@
         <v>154</v>
       </c>
       <c r="C94" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
         <v>196.97234435115618</v>
@@ -12144,7 +12144,7 @@
         <v>154</v>
       </c>
       <c r="C95" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
         <v>196.97234435115618</v>
@@ -12227,7 +12227,7 @@
         <v>154</v>
       </c>
       <c r="C96" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
         <v>196.97234435115618</v>
@@ -12310,7 +12310,7 @@
         <v>154</v>
       </c>
       <c r="C97" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
         <v>196.97234435115618</v>
@@ -12393,7 +12393,7 @@
         <v>154</v>
       </c>
       <c r="C98" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
         <v>196.97234435115618</v>
@@ -12476,7 +12476,7 @@
         <v>154</v>
       </c>
       <c r="C99" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
         <v>196.97234435115618</v>
@@ -12559,7 +12559,7 @@
         <v>154</v>
       </c>
       <c r="C100" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
         <v>196.97234435115618</v>
@@ -12642,7 +12642,7 @@
         <v>155</v>
       </c>
       <c r="C101" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
         <v>196.97234435115618</v>
@@ -12725,7 +12725,7 @@
         <v>155</v>
       </c>
       <c r="C102" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
         <v>196.97234435115618</v>
@@ -12808,7 +12808,7 @@
         <v>155</v>
       </c>
       <c r="C103" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1">
         <v>196.97234435115618</v>
@@ -12891,7 +12891,7 @@
         <v>155</v>
       </c>
       <c r="C104" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1">
         <v>196.97234435115618</v>
@@ -12974,7 +12974,7 @@
         <v>155</v>
       </c>
       <c r="C105" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
         <v>196.97234435115618</v>
@@ -13057,7 +13057,7 @@
         <v>155</v>
       </c>
       <c r="C106" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
         <v>196.97234435115618</v>
@@ -13140,7 +13140,7 @@
         <v>155</v>
       </c>
       <c r="C107" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1">
         <v>196.97234435115618</v>
@@ -13223,7 +13223,7 @@
         <v>155</v>
       </c>
       <c r="C108" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1">
         <v>196.97234435115618</v>
@@ -13306,7 +13306,7 @@
         <v>155</v>
       </c>
       <c r="C109" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1">
         <v>196.97234435115618</v>
@@ -13389,7 +13389,7 @@
         <v>156</v>
       </c>
       <c r="C110" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>216.92304943138944</v>
@@ -13472,7 +13472,7 @@
         <v>156</v>
       </c>
       <c r="C111" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>216.92304943138944</v>
@@ -13555,7 +13555,7 @@
         <v>156</v>
       </c>
       <c r="C112" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>216.92304943138944</v>
@@ -13638,7 +13638,7 @@
         <v>156</v>
       </c>
       <c r="C113" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
         <v>216.92304943138944</v>
@@ -13721,7 +13721,7 @@
         <v>156</v>
       </c>
       <c r="C114" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
         <v>216.92304943138944</v>
@@ -13804,7 +13804,7 @@
         <v>156</v>
       </c>
       <c r="C115" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
         <v>216.92304943138944</v>
@@ -13887,7 +13887,7 @@
         <v>156</v>
       </c>
       <c r="C116" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
         <v>216.92304943138944</v>
@@ -13970,7 +13970,7 @@
         <v>156</v>
       </c>
       <c r="C117" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1">
         <v>216.92304943138944</v>
@@ -14053,7 +14053,7 @@
         <v>156</v>
       </c>
       <c r="C118" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1">
         <v>216.92304943138944</v>
@@ -14136,7 +14136,7 @@
         <v>156</v>
       </c>
       <c r="C119" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>216.92304943138944</v>
@@ -14219,7 +14219,7 @@
         <v>156</v>
       </c>
       <c r="C120" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>216.92304943138944</v>
@@ -14302,7 +14302,7 @@
         <v>156</v>
       </c>
       <c r="C121" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
         <v>216.92304943138944</v>
@@ -14385,7 +14385,7 @@
         <v>156</v>
       </c>
       <c r="C122" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1">
         <v>216.92304943138944</v>
@@ -14468,7 +14468,7 @@
         <v>156</v>
       </c>
       <c r="C123" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1">
         <v>216.92304943138944</v>
